--- a/Homework Assignments/a15/User Story Specs.xlsx
+++ b/Homework Assignments/a15/User Story Specs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Levi\Desktop\skewl\2018 Fall\Software Engineering\a15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Levi\Documents\GitHub\GetRichTwitch\Homework Assignments\a15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A302A070-2A21-452E-8DED-8C0336295896}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{095058D2-CBB2-42D5-A2A8-C81862E817C2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>User Story</t>
   </si>
@@ -48,27 +48,6 @@
     <t>Team Members:</t>
   </si>
   <si>
-    <t>I, Joe, as a student of Texas State University would like to be able to find open bike racks on campus before I come to campus so that I don't waste my time looking.</t>
-  </si>
-  <si>
-    <t>Display a list of open bike racks</t>
-  </si>
-  <si>
-    <t>Search function for open bike racks near my destination</t>
-  </si>
-  <si>
-    <t>Ability to reserve a location on a bike rack.</t>
-  </si>
-  <si>
-    <t>Whether the bike racks are lighted at night</t>
-  </si>
-  <si>
-    <t>Ability to report the number of open slots on a bike rack.</t>
-  </si>
-  <si>
-    <t>Ability to report the typical times a bike rack has at least one open slot.</t>
-  </si>
-  <si>
     <t>User Stories &amp; Functional Requirements for GetRichTwitch</t>
   </si>
   <si>
@@ -88,6 +67,39 @@
   </si>
   <si>
     <t>example:</t>
+  </si>
+  <si>
+    <t>I, |slartibartfast|, am a Twitch user that wants to have fun in Twitch chat. I type "!slap" and then the name of another user in chat to slap them.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The bot slaps the wanted user, typing @[username] You Have Been Slapped! </t>
+  </si>
+  <si>
+    <t>Searches the running list of usernames that have posted in the chat, tells slaper whether slapee is in chat.</t>
+  </si>
+  <si>
+    <t>keep a tally of who has been slapped the most</t>
+  </si>
+  <si>
+    <t>An actual hand coming out of the computer to slap someone, because it is all digital and fake internet points.</t>
+  </si>
+  <si>
+    <t>permissions, only certain users can slap</t>
+  </si>
+  <si>
+    <t>I, XxMaestroChefxX is a Twitch user that wants to see their status. They type "!stats" in chat.</t>
+  </si>
+  <si>
+    <t>The bot responds with information on their status including name, if they are a mod, and badges.</t>
+  </si>
+  <si>
+    <t>also includes information on their points, coins, and other chat games information.</t>
+  </si>
+  <si>
+    <t>stores information in a file for data mining/management for use of account using bot.</t>
+  </si>
+  <si>
+    <t>Personal information will not be stored.</t>
   </si>
 </sst>
 </file>
@@ -162,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -180,6 +192,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -464,7 +479,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,7 +493,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3"/>
@@ -487,19 +502,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -530,47 +545,61 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+    <row r="10" spans="1:6" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>

--- a/Homework Assignments/a15/User Story Specs.xlsx
+++ b/Homework Assignments/a15/User Story Specs.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Levi\Documents\GitHub\GetRichTwitch\Homework Assignments\a15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joel\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{095058D2-CBB2-42D5-A2A8-C81862E817C2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>User Story</t>
   </si>
@@ -100,12 +99,42 @@
   </si>
   <si>
     <t>Personal information will not be stored.</t>
+  </si>
+  <si>
+    <t>I, MasterTwitchUser, is a Twitch user that has just subscribed to the channel.</t>
+  </si>
+  <si>
+    <t>Logs name and can store the subscriptions in a data file for mining purposes.</t>
+  </si>
+  <si>
+    <t>Won't print out a message to the views showing the user subscribed becauser that is already built into Twitch.</t>
+  </si>
+  <si>
+    <t>The bot recognized the subscription of a user.</t>
+  </si>
+  <si>
+    <t>Should loga a message out of the chats view.</t>
+  </si>
+  <si>
+    <t>I, TheGreatGabby01, is a Twitch user that wants to gamble some of their coins for potentailly more coins. They type "!gamble xxx" in chat. xxx = heads/tails</t>
+  </si>
+  <si>
+    <t>The bot deducts coins from the user and then flips a coin to see if they won or not.</t>
+  </si>
+  <si>
+    <t>Access to the the data files where we keep all the users' coins and points.</t>
+  </si>
+  <si>
+    <t>A flashy message that shows the user gambling in chat for others to see.</t>
+  </si>
+  <si>
+    <t>A graphical image that moves to show that the user won or not.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -187,14 +216,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -475,11 +504,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,18 +547,18 @@
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
@@ -553,7 +582,7 @@
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:6" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -573,7 +602,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
@@ -582,7 +611,7 @@
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:6" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -601,19 +630,45 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+    <row r="11" spans="1:6" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>

--- a/Homework Assignments/a15/User Story Specs.xlsx
+++ b/Homework Assignments/a15/User Story Specs.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joel\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Levi\Documents\GitHub\GetRichTwitch\Homework Assignments\a15\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E25C2C8D-92DC-4089-9BB1-46B533BC2C0F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>User Story</t>
   </si>
@@ -65,30 +66,12 @@
     <t>Joel</t>
   </si>
   <si>
-    <t>example:</t>
-  </si>
-  <si>
-    <t>I, |slartibartfast|, am a Twitch user that wants to have fun in Twitch chat. I type "!slap" and then the name of another user in chat to slap them.</t>
-  </si>
-  <si>
     <t xml:space="preserve">The bot slaps the wanted user, typing @[username] You Have Been Slapped! </t>
   </si>
   <si>
-    <t>Searches the running list of usernames that have posted in the chat, tells slaper whether slapee is in chat.</t>
-  </si>
-  <si>
-    <t>keep a tally of who has been slapped the most</t>
-  </si>
-  <si>
     <t>An actual hand coming out of the computer to slap someone, because it is all digital and fake internet points.</t>
   </si>
   <si>
-    <t>permissions, only certain users can slap</t>
-  </si>
-  <si>
-    <t>I, XxMaestroChefxX is a Twitch user that wants to see their status. They type "!stats" in chat.</t>
-  </si>
-  <si>
     <t>The bot responds with information on their status including name, if they are a mod, and badges.</t>
   </si>
   <si>
@@ -129,13 +112,49 @@
   </si>
   <si>
     <t>A graphical image that moves to show that the user won or not.</t>
+  </si>
+  <si>
+    <t>The Bot receives the message</t>
+  </si>
+  <si>
+    <t>Searches the running list of usernames that have posted in the chat.</t>
+  </si>
+  <si>
+    <t>backslap, those are just rude.</t>
+  </si>
+  <si>
+    <t>I, Levi, am a Twitch user called |slartibartfast|, I want to have fun in Twitch chat. I type "!slap" and then the name of another user in chat to slap them.</t>
+  </si>
+  <si>
+    <t>I,Levi, am a Twitch user called  XxMaestroChefxX, I want to see their status. They type "!stats" in chat.</t>
+  </si>
+  <si>
+    <t>No separate mod functionality.</t>
+  </si>
+  <si>
+    <t>Nifty formatting.</t>
+  </si>
+  <si>
+    <t>Tells the user the information that is stored for the channel to use.</t>
+  </si>
+  <si>
+    <t>Keep a tally of who has been slapped the most.</t>
+  </si>
+  <si>
+    <t>Tells slaper whether slapee is in chat.</t>
+  </si>
+  <si>
+    <t>The Bot receives the message.</t>
+  </si>
+  <si>
+    <t>Permissions, only certain users can slap.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,14 +178,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -176,7 +187,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -199,11 +210,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -211,9 +240,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -224,6 +250,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,11 +542,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,18 +585,18 @@
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
+      <c r="A6" s="6"/>
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
@@ -572,117 +610,127 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:6" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="D10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4" t="s">
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="E12" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+    <row r="13" spans="1:6" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -754,11 +802,28 @@
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
     </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Homework Assignments/a15/User Story Specs.xlsx
+++ b/Homework Assignments/a15/User Story Specs.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Levi\Documents\GitHub\GetRichTwitch\Homework Assignments\a15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joel\Documents\GitHub\GetRichTwitch\Homework Assignments\a15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E25C2C8D-92DC-4089-9BB1-46B533BC2C0F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>User Story</t>
   </si>
@@ -84,24 +83,9 @@
     <t>Personal information will not be stored.</t>
   </si>
   <si>
-    <t>I, MasterTwitchUser, is a Twitch user that has just subscribed to the channel.</t>
-  </si>
-  <si>
-    <t>Logs name and can store the subscriptions in a data file for mining purposes.</t>
-  </si>
-  <si>
-    <t>Won't print out a message to the views showing the user subscribed becauser that is already built into Twitch.</t>
-  </si>
-  <si>
     <t>The bot recognized the subscription of a user.</t>
   </si>
   <si>
-    <t>Should loga a message out of the chats view.</t>
-  </si>
-  <si>
-    <t>I, TheGreatGabby01, is a Twitch user that wants to gamble some of their coins for potentailly more coins. They type "!gamble xxx" in chat. xxx = heads/tails</t>
-  </si>
-  <si>
     <t>The bot deducts coins from the user and then flips a coin to see if they won or not.</t>
   </si>
   <si>
@@ -148,12 +132,51 @@
   </si>
   <si>
     <t>Permissions, only certain users can slap.</t>
+  </si>
+  <si>
+    <t>I, Joel, am a Twitch user called MasterTwitchUser that has just subscribed to the channel.</t>
+  </si>
+  <si>
+    <t>Bot doesn't recognize a user trying to imitate a sub using a chat message.</t>
+  </si>
+  <si>
+    <t>Should log a message out of the chats view.</t>
+  </si>
+  <si>
+    <t>Should have the ablity to work on a Twitch Prime sub and other sub types.</t>
+  </si>
+  <si>
+    <t>Logs name and can stores the subscriptions in a data file for mining purposes.</t>
+  </si>
+  <si>
+    <t>A bot message congratulating the user for subscribing.</t>
+  </si>
+  <si>
+    <t>Won't print out a message to the views showing the user subscribed because that is already built into Twitch.</t>
+  </si>
+  <si>
+    <t>Give the user coins of points for subscribing.</t>
+  </si>
+  <si>
+    <t>I, Joel, am a Twitch user TheGreatGabby01 who wants to gamble some of their coins for potentailly more coins. I can type "!gamble xxx" in chat. xxx = heads/tails</t>
+  </si>
+  <si>
+    <t>Stop the user from gambling if they don't have enough coins.</t>
+  </si>
+  <si>
+    <t>The ability to check, add, and deduct points from the user.</t>
+  </si>
+  <si>
+    <t>Other people placing bets on that person's bet.</t>
+  </si>
+  <si>
+    <t>Won't have any monetary value because I believe that's illegal.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -245,6 +268,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -255,9 +281,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -542,11 +565,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,18 +608,18 @@
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
@@ -611,17 +634,17 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>14</v>
@@ -629,39 +652,39 @@
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>33</v>
+      <c r="A9" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="4" t="s">
         <v>15</v>
       </c>
@@ -669,7 +692,7 @@
         <v>17</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>18</v>
@@ -678,59 +701,71 @@
     </row>
     <row r="11" spans="1:6" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="5" t="s">
+      <c r="C12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>

--- a/Homework Assignments/a15/User Story Specs.xlsx
+++ b/Homework Assignments/a15/User Story Specs.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joel\Documents\GitHub\GetRichTwitch\Homework Assignments\a15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Levi\Documents\GitHub\GetRichTwitch\Homework Assignments\a15\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B469D4FE-8121-4829-80AB-DBD3EB9BFC16}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -176,7 +177,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -210,7 +211,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -233,29 +234,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -280,11 +263,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -565,11 +545,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,7 +650,7 @@
       <c r="A9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -684,7 +664,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="4" t="s">
         <v>15</v>
       </c>
@@ -700,7 +680,7 @@
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B11" s="5" t="s">

--- a/Homework Assignments/a15/User Story Specs.xlsx
+++ b/Homework Assignments/a15/User Story Specs.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Levi\Documents\GitHub\GetRichTwitch\Homework Assignments\a15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joel\Documents\GitHub\GetRichTwitch\Homework Assignments\a15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B469D4FE-8121-4829-80AB-DBD3EB9BFC16}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -162,9 +161,6 @@
     <t>I, Joel, am a Twitch user TheGreatGabby01 who wants to gamble some of their coins for potentailly more coins. I can type "!gamble xxx" in chat. xxx = heads/tails</t>
   </si>
   <si>
-    <t>Stop the user from gambling if they don't have enough coins.</t>
-  </si>
-  <si>
     <t>The ability to check, add, and deduct points from the user.</t>
   </si>
   <si>
@@ -172,12 +168,15 @@
   </si>
   <si>
     <t>Won't have any monetary value because I believe that's illegal.</t>
+  </si>
+  <si>
+    <t>Stop the user from gambling if they input the wrong command.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -211,7 +210,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -234,11 +233,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -263,8 +280,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -545,11 +565,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,7 +670,7 @@
       <c r="A9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -664,7 +684,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="4" t="s">
         <v>15</v>
       </c>
@@ -680,7 +700,7 @@
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -718,16 +738,16 @@
         <v>44</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="F13" s="4"/>
     </row>

--- a/Homework Assignments/a15/User Story Specs.xlsx
+++ b/Homework Assignments/a15/User Story Specs.xlsx
@@ -160,7 +160,7 @@
     <t>A graphical image that moves to show that the user won or not.</t>
   </si>
   <si>
-    <t>I, Eric, am a Twitch user HotdogWaterSnowcone, who wants to play around with the twitch commands. I type “!showHugs” into the chat box</t>
+    <t>I, Eric, am a Twitch user, HotdogWaterSnowcone, who wants to play around with the twitch commands. I type “!showHugs” into the chat box</t>
   </si>
   <si>
     <t xml:space="preserve">The !showHugs command triggers the intended functionality within the code       </t>
@@ -187,7 +187,7 @@
     <t>Show the user’s total amount of coins or points</t>
   </si>
   <si>
-    <t>I, Eric, am a Twitch user BigMusclesKevin, who wants to play around with the twitch commands. I type “!discipline” into the chat box</t>
+    <t>I, Eric, am a Twitch user, BigMusclesKevin, who wants to play around with the twitch commands. I type “!discipline” into the chat box</t>
   </si>
   <si>
     <t>Bot deducts one hug from the user and adds 1 count of discipline</t>

--- a/Homework Assignments/a15/User Story Specs.xlsx
+++ b/Homework Assignments/a15/User Story Specs.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cody\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E22D4D8A-70B9-41AB-8F29-7311F8F90A6B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>User Stories &amp; Functional Requirements for GetRichTwitch</t>
   </si>
@@ -212,39 +221,80 @@
   </si>
   <si>
     <t>Bot wont discipline every single user in the chat with one use of the !discipline command</t>
+  </si>
+  <si>
+    <t>I, Cody, am a Twitch user called BabySharkDoDoDo, I want to trade points for coins in Twitch chat. I type "!trade" into the chat box.</t>
+  </si>
+  <si>
+    <t>available points traded in for coins</t>
+  </si>
+  <si>
+    <t>a call that allows the user to specify how many points they would like to trade in</t>
+  </si>
+  <si>
+    <t>a check to the points array that will give them the correct amount of coins given they have enough points</t>
+  </si>
+  <si>
+    <t>give the user more coins than they have points for</t>
+  </si>
+  <si>
+    <t>deduct coins from coins array</t>
+  </si>
+  <si>
+    <t>points array is deducted from and the equivalent amount of coins  is added to the coins array</t>
+  </si>
+  <si>
+    <t>an ouput for the amount of available points that can be traded in</t>
+  </si>
+  <si>
+    <t>an option where users can trade in all available points</t>
+  </si>
+  <si>
+    <t>I, Cody, am a Twitch user called longThymeKnowSea, I want to get more points in Twitch chat. I type "!givepts" and then I should receive points.</t>
+  </si>
+  <si>
+    <t>an array that points can be added to</t>
+  </si>
+  <si>
+    <t>a timer that will only allow users to receive points every ~5mins</t>
+  </si>
+  <si>
+    <t>an ouput for the amount of points that were awarded to the user</t>
+  </si>
+  <si>
+    <t>code that adds users current points to the points they just received</t>
+  </si>
+  <si>
+    <t>an output for the user that shows the additional points added to the array</t>
+  </si>
+  <si>
+    <t>a call that would allow users to give points to others users in the chat</t>
+  </si>
+  <si>
+    <t>an array that adds their points to someone elses array index</t>
+  </si>
+  <si>
+    <t>a call to another function like slap</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
+      <b/>
       <sz val="14"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -264,7 +314,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -347,72 +397,89 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+  <cellXfs count="23">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -422,24 +489,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -641,7 +769,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -660,7 +788,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -690,7 +818,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -716,7 +844,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -742,7 +870,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -768,7 +896,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -794,7 +922,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -820,7 +948,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -846,7 +974,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -872,7 +1000,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -898,7 +1026,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -911,9 +1039,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -930,7 +1064,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -949,7 +1083,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -975,7 +1109,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1001,7 +1135,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1027,7 +1161,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1053,7 +1187,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1079,7 +1213,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1105,7 +1239,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1131,7 +1265,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1157,7 +1291,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1183,7 +1317,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1196,9 +1330,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1212,7 +1352,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1231,7 +1371,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1261,7 +1401,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1287,7 +1427,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1313,7 +1453,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1339,7 +1479,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1365,7 +1505,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1391,7 +1531,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1417,7 +1557,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1443,7 +1583,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1469,7 +1609,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1482,35 +1622,43 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:IV24"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1719" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.8516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85156" style="1" customWidth="1"/>
-    <col min="7" max="256" width="8.85156" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" style="1" customWidth="1"/>
+    <col min="6" max="256" width="8.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
@@ -1519,7 +1667,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" ht="18.75" customHeight="1">
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1527,27 +1675,27 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="4">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s" s="5">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s" s="5">
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s" s="5">
+      <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E3" t="s" s="5">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F3" t="s" s="5">
+      <c r="F3" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -1555,299 +1703,337 @@
       <c r="E4" s="6"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="s" s="7">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s" s="7">
+      <c r="B5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="8"/>
-      <c r="B6" t="s" s="7">
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="20"/>
+      <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s" s="7">
+      <c r="C6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D6" t="s" s="7">
+      <c r="D6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E6" t="s" s="7">
+      <c r="E6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="9"/>
-    </row>
-    <row r="7" ht="106.5" customHeight="1">
-      <c r="A7" t="s" s="10">
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s" s="11">
+      <c r="B7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s" s="11">
+      <c r="C7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s" s="11">
+      <c r="D7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E7" t="s" s="11">
+      <c r="E7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="12"/>
-    </row>
-    <row r="8" ht="103.5" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" t="s" s="14">
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
+      <c r="B8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C8" t="s" s="14">
+      <c r="C8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D8" t="s" s="14">
+      <c r="D8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E8" t="s" s="14">
+      <c r="E8" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" ht="78" customHeight="1">
-      <c r="A9" t="s" s="15">
+    <row r="9" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s" s="14">
+      <c r="B9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s" s="14">
+      <c r="C9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D9" t="s" s="14">
+      <c r="D9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E9" t="s" s="14">
+      <c r="E9" s="11" t="s">
         <v>26</v>
       </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" ht="131.25" customHeight="1">
-      <c r="A10" s="16"/>
-      <c r="B10" t="s" s="14">
+    <row r="10" spans="1:6" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="B10" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C10" t="s" s="14">
+      <c r="C10" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D10" t="s" s="14">
+      <c r="D10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E10" t="s" s="14">
+      <c r="E10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="12"/>
-    </row>
-    <row r="11" ht="131.25" customHeight="1">
-      <c r="A11" t="s" s="17">
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B11" t="s" s="18">
+      <c r="B11" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C11" t="s" s="18">
+      <c r="C11" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D11" t="s" s="18">
+      <c r="D11" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E11" t="s" s="18">
+      <c r="E11" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="12"/>
-    </row>
-    <row r="12" ht="135.75" customHeight="1">
-      <c r="A12" s="19"/>
-      <c r="B12" t="s" s="18">
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:6" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C12" t="s" s="18">
+      <c r="C12" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D12" t="s" s="18">
+      <c r="D12" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E12" t="s" s="18">
+      <c r="E12" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="12"/>
-    </row>
-    <row r="13" ht="135.75" customHeight="1">
-      <c r="A13" t="s" s="15">
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:6" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B13" t="s" s="18">
+      <c r="B13" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C13" t="s" s="18">
+      <c r="C13" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D13" t="s" s="18">
+      <c r="D13" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E13" t="s" s="18">
+      <c r="E13" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" ht="119.25" customHeight="1">
-      <c r="A14" s="16"/>
-      <c r="B14" t="s" s="18">
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+      <c r="B14" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C14" t="s" s="18">
+      <c r="C14" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D14" t="s" s="18">
+      <c r="D14" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E14" t="s" s="18">
+      <c r="E14" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="12"/>
-    </row>
-    <row r="15" ht="99" customHeight="1">
-      <c r="A15" t="s" s="17">
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:6" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B15" t="s" s="18">
+      <c r="B15" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C15" t="s" s="18">
+      <c r="C15" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D15" t="s" s="18">
+      <c r="D15" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E15" t="s" s="18">
+      <c r="E15" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="12"/>
-    </row>
-    <row r="16" ht="75" customHeight="1">
-      <c r="A16" s="19"/>
-      <c r="B16" t="s" s="18">
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C16" t="s" s="18">
+      <c r="C16" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D16" t="s" s="18">
+      <c r="D16" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E16" t="s" s="18">
+      <c r="E16" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="12"/>
-    </row>
-    <row r="17" ht="111" customHeight="1">
-      <c r="A17" t="s" s="15">
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B17" t="s" s="18">
+      <c r="B17" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C17" t="s" s="18">
+      <c r="C17" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D17" t="s" s="18">
+      <c r="D17" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E17" t="s" s="18">
+      <c r="E17" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="12"/>
-    </row>
-    <row r="18" ht="99" customHeight="1">
-      <c r="A18" s="19"/>
-      <c r="B18" t="s" s="18">
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:6" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C18" t="s" s="18">
+      <c r="C18" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D18" t="s" s="18">
+      <c r="D18" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E18" t="s" s="18">
+      <c r="E18" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F18" s="12"/>
-    </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:6" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>71</v>
+      </c>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
+    <row r="20" spans="1:6" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="17"/>
+      <c r="B20" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>72</v>
+      </c>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
+    <row r="21" spans="1:6" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>83</v>
+      </c>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
+    <row r="22" spans="1:6" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="22"/>
+      <c r="B22" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
       <c r="F24" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A13:A14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/Homework Assignments/a15/User Story Specs.xlsx
+++ b/Homework Assignments/a15/User Story Specs.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cody\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E22D4D8A-70B9-41AB-8F29-7311F8F90A6B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>User Stories &amp; Functional Requirements for GetRichTwitch</t>
   </si>
@@ -160,7 +169,7 @@
     <t>A graphical image that moves to show that the user won or not.</t>
   </si>
   <si>
-    <t>I, Eric, am a Twitch user, HotdogWaterSnowcone, who wants to play around with the twitch commands. I type “!showHugs” into the chat box</t>
+    <t>I, Eric, am a Twitch user HotdogWaterSnowcone, who wants to play around with the twitch commands. I type “!showHugs” into the chat box</t>
   </si>
   <si>
     <t xml:space="preserve">The !showHugs command triggers the intended functionality within the code       </t>
@@ -187,7 +196,7 @@
     <t>Show the user’s total amount of coins or points</t>
   </si>
   <si>
-    <t>I, Eric, am a Twitch user, BigMusclesKevin, who wants to play around with the twitch commands. I type “!discipline” into the chat box</t>
+    <t>I, Eric, am a Twitch user BigMusclesKevin, who wants to play around with the twitch commands. I type “!discipline” into the chat box</t>
   </si>
   <si>
     <t>Bot deducts one hug from the user and adds 1 count of discipline</t>
@@ -212,39 +221,80 @@
   </si>
   <si>
     <t>Bot wont discipline every single user in the chat with one use of the !discipline command</t>
+  </si>
+  <si>
+    <t>I, Cody, am a Twitch user called BabySharkDoDoDo, I want to trade points for coins in Twitch chat. I type "!trade" into the chat box.</t>
+  </si>
+  <si>
+    <t>available points traded in for coins</t>
+  </si>
+  <si>
+    <t>a call that allows the user to specify how many points they would like to trade in</t>
+  </si>
+  <si>
+    <t>a check to the points array that will give them the correct amount of coins given they have enough points</t>
+  </si>
+  <si>
+    <t>give the user more coins than they have points for</t>
+  </si>
+  <si>
+    <t>deduct coins from coins array</t>
+  </si>
+  <si>
+    <t>points array is deducted from and the equivalent amount of coins  is added to the coins array</t>
+  </si>
+  <si>
+    <t>an ouput for the amount of available points that can be traded in</t>
+  </si>
+  <si>
+    <t>an option where users can trade in all available points</t>
+  </si>
+  <si>
+    <t>I, Cody, am a Twitch user called longThymeKnowSea, I want to get more points in Twitch chat. I type "!givepts" and then I should receive points.</t>
+  </si>
+  <si>
+    <t>an array that points can be added to</t>
+  </si>
+  <si>
+    <t>a timer that will only allow users to receive points every ~5mins</t>
+  </si>
+  <si>
+    <t>an ouput for the amount of points that were awarded to the user</t>
+  </si>
+  <si>
+    <t>code that adds users current points to the points they just received</t>
+  </si>
+  <si>
+    <t>an output for the user that shows the additional points added to the array</t>
+  </si>
+  <si>
+    <t>a call that would allow users to give points to others users in the chat</t>
+  </si>
+  <si>
+    <t>an array that adds their points to someone elses array index</t>
+  </si>
+  <si>
+    <t>a call to another function like slap</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
+      <b/>
       <sz val="14"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -264,7 +314,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -347,72 +397,89 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+  <cellXfs count="23">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -422,24 +489,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -641,7 +769,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -660,7 +788,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -690,7 +818,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -716,7 +844,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -742,7 +870,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -768,7 +896,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -794,7 +922,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -820,7 +948,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -846,7 +974,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -872,7 +1000,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -898,7 +1026,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -911,9 +1039,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -930,7 +1064,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -949,7 +1083,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -975,7 +1109,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1001,7 +1135,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1027,7 +1161,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1053,7 +1187,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1079,7 +1213,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1105,7 +1239,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1131,7 +1265,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1157,7 +1291,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1183,7 +1317,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1196,9 +1330,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1212,7 +1352,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1231,7 +1371,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1261,7 +1401,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1287,7 +1427,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1313,7 +1453,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1339,7 +1479,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1365,7 +1505,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1391,7 +1531,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1417,7 +1557,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1443,7 +1583,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1469,7 +1609,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1482,35 +1622,43 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:IV24"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1719" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.8516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85156" style="1" customWidth="1"/>
-    <col min="7" max="256" width="8.85156" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" style="1" customWidth="1"/>
+    <col min="6" max="256" width="8.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
@@ -1519,7 +1667,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" ht="18.75" customHeight="1">
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1527,27 +1675,27 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="4">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s" s="5">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s" s="5">
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s" s="5">
+      <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E3" t="s" s="5">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F3" t="s" s="5">
+      <c r="F3" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -1555,299 +1703,337 @@
       <c r="E4" s="6"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="s" s="7">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s" s="7">
+      <c r="B5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="8"/>
-      <c r="B6" t="s" s="7">
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="20"/>
+      <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s" s="7">
+      <c r="C6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D6" t="s" s="7">
+      <c r="D6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E6" t="s" s="7">
+      <c r="E6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="9"/>
-    </row>
-    <row r="7" ht="106.5" customHeight="1">
-      <c r="A7" t="s" s="10">
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s" s="11">
+      <c r="B7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s" s="11">
+      <c r="C7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s" s="11">
+      <c r="D7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E7" t="s" s="11">
+      <c r="E7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="12"/>
-    </row>
-    <row r="8" ht="103.5" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" t="s" s="14">
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
+      <c r="B8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C8" t="s" s="14">
+      <c r="C8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D8" t="s" s="14">
+      <c r="D8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E8" t="s" s="14">
+      <c r="E8" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" ht="78" customHeight="1">
-      <c r="A9" t="s" s="15">
+    <row r="9" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s" s="14">
+      <c r="B9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s" s="14">
+      <c r="C9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D9" t="s" s="14">
+      <c r="D9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E9" t="s" s="14">
+      <c r="E9" s="11" t="s">
         <v>26</v>
       </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" ht="131.25" customHeight="1">
-      <c r="A10" s="16"/>
-      <c r="B10" t="s" s="14">
+    <row r="10" spans="1:6" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="B10" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C10" t="s" s="14">
+      <c r="C10" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D10" t="s" s="14">
+      <c r="D10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E10" t="s" s="14">
+      <c r="E10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="12"/>
-    </row>
-    <row r="11" ht="131.25" customHeight="1">
-      <c r="A11" t="s" s="17">
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B11" t="s" s="18">
+      <c r="B11" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C11" t="s" s="18">
+      <c r="C11" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D11" t="s" s="18">
+      <c r="D11" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E11" t="s" s="18">
+      <c r="E11" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="12"/>
-    </row>
-    <row r="12" ht="135.75" customHeight="1">
-      <c r="A12" s="19"/>
-      <c r="B12" t="s" s="18">
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:6" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C12" t="s" s="18">
+      <c r="C12" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D12" t="s" s="18">
+      <c r="D12" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E12" t="s" s="18">
+      <c r="E12" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="12"/>
-    </row>
-    <row r="13" ht="135.75" customHeight="1">
-      <c r="A13" t="s" s="15">
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:6" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B13" t="s" s="18">
+      <c r="B13" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C13" t="s" s="18">
+      <c r="C13" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D13" t="s" s="18">
+      <c r="D13" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E13" t="s" s="18">
+      <c r="E13" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" ht="119.25" customHeight="1">
-      <c r="A14" s="16"/>
-      <c r="B14" t="s" s="18">
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+      <c r="B14" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C14" t="s" s="18">
+      <c r="C14" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D14" t="s" s="18">
+      <c r="D14" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E14" t="s" s="18">
+      <c r="E14" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="12"/>
-    </row>
-    <row r="15" ht="99" customHeight="1">
-      <c r="A15" t="s" s="17">
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:6" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B15" t="s" s="18">
+      <c r="B15" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C15" t="s" s="18">
+      <c r="C15" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D15" t="s" s="18">
+      <c r="D15" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E15" t="s" s="18">
+      <c r="E15" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="12"/>
-    </row>
-    <row r="16" ht="75" customHeight="1">
-      <c r="A16" s="19"/>
-      <c r="B16" t="s" s="18">
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C16" t="s" s="18">
+      <c r="C16" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D16" t="s" s="18">
+      <c r="D16" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E16" t="s" s="18">
+      <c r="E16" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="12"/>
-    </row>
-    <row r="17" ht="111" customHeight="1">
-      <c r="A17" t="s" s="15">
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B17" t="s" s="18">
+      <c r="B17" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C17" t="s" s="18">
+      <c r="C17" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D17" t="s" s="18">
+      <c r="D17" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E17" t="s" s="18">
+      <c r="E17" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="12"/>
-    </row>
-    <row r="18" ht="99" customHeight="1">
-      <c r="A18" s="19"/>
-      <c r="B18" t="s" s="18">
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:6" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C18" t="s" s="18">
+      <c r="C18" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D18" t="s" s="18">
+      <c r="D18" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E18" t="s" s="18">
+      <c r="E18" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F18" s="12"/>
-    </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:6" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>71</v>
+      </c>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
+    <row r="20" spans="1:6" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="17"/>
+      <c r="B20" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>72</v>
+      </c>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
+    <row r="21" spans="1:6" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>83</v>
+      </c>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
+    <row r="22" spans="1:6" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="22"/>
+      <c r="B22" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
       <c r="F24" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A13:A14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/Homework Assignments/a15/User Story Specs.xlsx
+++ b/Homework Assignments/a15/User Story Specs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cody\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NinoPinto\Documents\GitHub\GetRichTwitch\Homework Assignments\a15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E22D4D8A-70B9-41AB-8F29-7311F8F90A6B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46176393-3DBF-4096-A760-5C0D8291D082}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t>User Stories &amp; Functional Requirements for GetRichTwitch</t>
   </si>
@@ -275,6 +275,60 @@
   </si>
   <si>
     <t>a call to another function like slap</t>
+  </si>
+  <si>
+    <t>I, Michael, am a Twitch user called ChickenFinger, I want to allow my viewers to play songs through my stream without access to my computer</t>
+  </si>
+  <si>
+    <t>The ability to add songs from approved whitelist sources</t>
+  </si>
+  <si>
+    <t>The ability to turn on and off the queue for the broadcaster</t>
+  </si>
+  <si>
+    <t>Whitelist/Blacklist of song IDs</t>
+  </si>
+  <si>
+    <t>Be able to filter out unsuitable songs (too long, content, etc)</t>
+  </si>
+  <si>
+    <t>Ability to skip songs</t>
+  </si>
+  <si>
+    <t>Ability to check if you have a song in the queue (for viewers)</t>
+  </si>
+  <si>
+    <t>Play any song/media file</t>
+  </si>
+  <si>
+    <t>Access to any account info for the broadcaster available to the users</t>
+  </si>
+  <si>
+    <t>I, Michael, am a Twitch user called GrandpaTestosterone, I want to be able to customize my bot and how it interacts with my chat</t>
+  </si>
+  <si>
+    <t>Ability to change commands available</t>
+  </si>
+  <si>
+    <t>Able to change channel the bot connects to</t>
+  </si>
+  <si>
+    <t>Broadcaster can customize access to certain commands</t>
+  </si>
+  <si>
+    <t>Make changes to crucial portions such as Oauth/IRCConnect</t>
+  </si>
+  <si>
+    <t>Make changes to bot account data (Bot name, bot client ID etc.)</t>
+  </si>
+  <si>
+    <t>Able to customize command specifics (limits, custom messages)</t>
+  </si>
+  <si>
+    <t>Change cost of coin/point items</t>
+  </si>
+  <si>
+    <t>Add setting for delay between consecutive uses of each command (e.g. 30s delay between requestsong acceptance)</t>
   </si>
 </sst>
 </file>
@@ -314,7 +368,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -423,11 +477,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -451,13 +516,16 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -466,20 +534,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1641,10 +1709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IV24"/>
+  <dimension ref="A1:IV26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1704,19 +1772,19 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -1732,7 +1800,7 @@
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="17" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="9" t="s">
@@ -1750,7 +1818,7 @@
       <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:6" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="11" t="s">
         <v>18</v>
       </c>
@@ -1784,7 +1852,7 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="11" t="s">
         <v>27</v>
       </c>
@@ -1800,7 +1868,7 @@
       <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:6" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="21" t="s">
         <v>31</v>
       </c>
       <c r="B11" s="12" t="s">
@@ -1818,7 +1886,7 @@
       <c r="F11" s="10"/>
     </row>
     <row r="12" spans="1:6" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="12" t="s">
         <v>36</v>
       </c>
@@ -1852,7 +1920,7 @@
       <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:6" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="12" t="s">
         <v>45</v>
       </c>
@@ -1868,7 +1936,7 @@
       <c r="F14" s="10"/>
     </row>
     <row r="15" spans="1:6" ht="99" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="21" t="s">
         <v>49</v>
       </c>
       <c r="B15" s="12" t="s">
@@ -1886,7 +1954,7 @@
       <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="12" t="s">
         <v>54</v>
       </c>
@@ -1920,7 +1988,7 @@
       <c r="F17" s="10"/>
     </row>
     <row r="18" spans="1:6" ht="99" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="12" t="s">
         <v>63</v>
       </c>
@@ -1936,7 +2004,7 @@
       <c r="F18" s="10"/>
     </row>
     <row r="19" spans="1:6" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="17" t="s">
         <v>67</v>
       </c>
       <c r="B19" s="10" t="s">
@@ -1954,7 +2022,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
+      <c r="A20" s="18"/>
       <c r="B20" s="10" t="s">
         <v>73</v>
       </c>
@@ -1970,7 +2038,7 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="19" t="s">
         <v>76</v>
       </c>
       <c r="B21" s="10" t="s">
@@ -1988,7 +2056,7 @@
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
+      <c r="A22" s="20"/>
       <c r="B22" s="10" t="s">
         <v>80</v>
       </c>
@@ -2003,24 +2071,76 @@
       </c>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
+    <row r="23" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>92</v>
+      </c>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
+    <row r="24" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A24" s="18"/>
+      <c r="B24" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="F24" s="3"/>
     </row>
+    <row r="25" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A25" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A26" s="18"/>
+      <c r="B26" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A13:A14"/>
